--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.200698666666666</v>
+        <v>3.868321</v>
       </c>
       <c r="H2">
-        <v>24.602096</v>
+        <v>11.604963</v>
       </c>
       <c r="I2">
-        <v>0.3423472217473603</v>
+        <v>0.1968897496002302</v>
       </c>
       <c r="J2">
-        <v>0.3423472217473603</v>
+        <v>0.1968897496002302</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>78.37080400000001</v>
+        <v>54.89331066666666</v>
       </c>
       <c r="N2">
-        <v>235.112412</v>
+        <v>164.679932</v>
       </c>
       <c r="O2">
-        <v>0.9256182775132761</v>
+        <v>0.8971624892852424</v>
       </c>
       <c r="P2">
-        <v>0.9256182775132761</v>
+        <v>0.8971624892852424</v>
       </c>
       <c r="Q2">
-        <v>642.6953478683947</v>
+        <v>212.3449464113906</v>
       </c>
       <c r="R2">
-        <v>5784.258130815552</v>
+        <v>1911.104517702516</v>
       </c>
       <c r="S2">
-        <v>0.3168828457052472</v>
+        <v>0.1766420978660906</v>
       </c>
       <c r="T2">
-        <v>0.3168828457052472</v>
+        <v>0.1766420978660906</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.200698666666666</v>
+        <v>3.868321</v>
       </c>
       <c r="H3">
-        <v>24.602096</v>
+        <v>11.604963</v>
       </c>
       <c r="I3">
-        <v>0.3423472217473603</v>
+        <v>0.1968897496002302</v>
       </c>
       <c r="J3">
-        <v>0.3423472217473603</v>
+        <v>0.1968897496002302</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.309992333333334</v>
+        <v>2.309992333333333</v>
       </c>
       <c r="N3">
-        <v>6.929977000000001</v>
+        <v>6.929977</v>
       </c>
       <c r="O3">
-        <v>0.02728275091638557</v>
+        <v>0.03775393480250816</v>
       </c>
       <c r="P3">
-        <v>0.02728275091638557</v>
+        <v>0.03775393480250816</v>
       </c>
       <c r="Q3">
-        <v>18.94355104797689</v>
+        <v>8.935791852872333</v>
       </c>
       <c r="R3">
-        <v>170.491959431792</v>
+        <v>80.422126675851</v>
       </c>
       <c r="S3">
-        <v>0.009340173977849846</v>
+        <v>0.007433362769689249</v>
       </c>
       <c r="T3">
-        <v>0.009340173977849848</v>
+        <v>0.007433362769689249</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.200698666666666</v>
+        <v>3.868321</v>
       </c>
       <c r="H4">
-        <v>24.602096</v>
+        <v>11.604963</v>
       </c>
       <c r="I4">
-        <v>0.3423472217473603</v>
+        <v>0.1968897496002302</v>
       </c>
       <c r="J4">
-        <v>0.3423472217473603</v>
+        <v>0.1968897496002302</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.987804</v>
+        <v>3.982169333333333</v>
       </c>
       <c r="N4">
-        <v>11.963412</v>
+        <v>11.946508</v>
       </c>
       <c r="O4">
-        <v>0.04709897157033827</v>
+        <v>0.06508357591224938</v>
       </c>
       <c r="P4">
-        <v>0.04709897157033827</v>
+        <v>0.06508357591224936</v>
       </c>
       <c r="Q4">
-        <v>32.702778945728</v>
+        <v>15.40430925768933</v>
       </c>
       <c r="R4">
-        <v>294.325010511552</v>
+        <v>138.638783319204</v>
       </c>
       <c r="S4">
-        <v>0.01612420206426321</v>
+        <v>0.01281428896445036</v>
       </c>
       <c r="T4">
-        <v>0.01612420206426321</v>
+        <v>0.01281428896445035</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>31.88443</v>
       </c>
       <c r="I5">
-        <v>0.4436835799477487</v>
+        <v>0.5409510947037116</v>
       </c>
       <c r="J5">
-        <v>0.4436835799477487</v>
+        <v>0.5409510947037116</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.37080400000001</v>
+        <v>54.89331066666666</v>
       </c>
       <c r="N5">
-        <v>235.112412</v>
+        <v>164.679932</v>
       </c>
       <c r="O5">
-        <v>0.9256182775132761</v>
+        <v>0.8971624892852424</v>
       </c>
       <c r="P5">
-        <v>0.9256182775132761</v>
+        <v>0.8971624892852424</v>
       </c>
       <c r="Q5">
-        <v>832.9361380605734</v>
+        <v>583.4139738065288</v>
       </c>
       <c r="R5">
-        <v>7496.42524254516</v>
+        <v>5250.725764258759</v>
       </c>
       <c r="S5">
-        <v>0.410681631032159</v>
+        <v>0.4853210307059588</v>
       </c>
       <c r="T5">
-        <v>0.4106816310321591</v>
+        <v>0.4853210307059588</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>31.88443</v>
       </c>
       <c r="I6">
-        <v>0.4436835799477487</v>
+        <v>0.5409510947037116</v>
       </c>
       <c r="J6">
-        <v>0.4436835799477487</v>
+        <v>0.5409510947037116</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.309992333333334</v>
+        <v>2.309992333333333</v>
       </c>
       <c r="N6">
-        <v>6.929977000000001</v>
+        <v>6.929977</v>
       </c>
       <c r="O6">
-        <v>0.02728275091638557</v>
+        <v>0.03775393480250816</v>
       </c>
       <c r="P6">
-        <v>0.02728275091638557</v>
+        <v>0.03775393480250816</v>
       </c>
       <c r="Q6">
         <v>24.55092961756778</v>
@@ -818,10 +818,10 @@
         <v>220.95836655811</v>
       </c>
       <c r="S6">
-        <v>0.01210490859740467</v>
+        <v>0.02042303236078935</v>
       </c>
       <c r="T6">
-        <v>0.01210490859740467</v>
+        <v>0.02042303236078935</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>31.88443</v>
       </c>
       <c r="I7">
-        <v>0.4436835799477487</v>
+        <v>0.5409510947037116</v>
       </c>
       <c r="J7">
-        <v>0.4436835799477487</v>
+        <v>0.5409510947037116</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.987804</v>
+        <v>3.982169333333333</v>
       </c>
       <c r="N7">
-        <v>11.963412</v>
+        <v>11.946508</v>
       </c>
       <c r="O7">
-        <v>0.04709897157033827</v>
+        <v>0.06508357591224938</v>
       </c>
       <c r="P7">
-        <v>0.04709897157033827</v>
+        <v>0.06508357591224936</v>
       </c>
       <c r="Q7">
-        <v>42.38295249724001</v>
+        <v>42.32306645227111</v>
       </c>
       <c r="R7">
-        <v>381.44657247516</v>
+        <v>380.90759807044</v>
       </c>
       <c r="S7">
-        <v>0.02089704031818492</v>
+        <v>0.03520703163696342</v>
       </c>
       <c r="T7">
-        <v>0.02089704031818492</v>
+        <v>0.03520703163696341</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.125488999999999</v>
+        <v>5.150678333333333</v>
       </c>
       <c r="H8">
-        <v>15.376467</v>
+        <v>15.452035</v>
       </c>
       <c r="I8">
-        <v>0.2139691983048911</v>
+        <v>0.2621591556960581</v>
       </c>
       <c r="J8">
-        <v>0.2139691983048911</v>
+        <v>0.2621591556960581</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>78.37080400000001</v>
+        <v>54.89331066666666</v>
       </c>
       <c r="N8">
-        <v>235.112412</v>
+        <v>164.679932</v>
       </c>
       <c r="O8">
-        <v>0.9256182775132761</v>
+        <v>0.8971624892852424</v>
       </c>
       <c r="P8">
-        <v>0.9256182775132761</v>
+        <v>0.8971624892852424</v>
       </c>
       <c r="Q8">
-        <v>401.688693823156</v>
+        <v>282.7377858957354</v>
       </c>
       <c r="R8">
-        <v>3615.198244408404</v>
+        <v>2544.64007306162</v>
       </c>
       <c r="S8">
-        <v>0.1980538007758698</v>
+        <v>0.2351993607131929</v>
       </c>
       <c r="T8">
-        <v>0.1980538007758699</v>
+        <v>0.2351993607131929</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.125488999999999</v>
+        <v>5.150678333333333</v>
       </c>
       <c r="H9">
-        <v>15.376467</v>
+        <v>15.452035</v>
       </c>
       <c r="I9">
-        <v>0.2139691983048911</v>
+        <v>0.2621591556960581</v>
       </c>
       <c r="J9">
-        <v>0.2139691983048911</v>
+        <v>0.2621591556960581</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.309992333333334</v>
+        <v>2.309992333333333</v>
       </c>
       <c r="N9">
-        <v>6.929977000000001</v>
+        <v>6.929977</v>
       </c>
       <c r="O9">
-        <v>0.02728275091638557</v>
+        <v>0.03775393480250816</v>
       </c>
       <c r="P9">
-        <v>0.02728275091638557</v>
+        <v>0.03775393480250816</v>
       </c>
       <c r="Q9">
-        <v>11.83984029458433</v>
+        <v>11.89802746146611</v>
       </c>
       <c r="R9">
-        <v>106.558562651259</v>
+        <v>107.082247153195</v>
       </c>
       <c r="S9">
-        <v>0.005837668341131051</v>
+        <v>0.009897539672029563</v>
       </c>
       <c r="T9">
-        <v>0.005837668341131053</v>
+        <v>0.009897539672029563</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.125488999999999</v>
+        <v>5.150678333333333</v>
       </c>
       <c r="H10">
-        <v>15.376467</v>
+        <v>15.452035</v>
       </c>
       <c r="I10">
-        <v>0.2139691983048911</v>
+        <v>0.2621591556960581</v>
       </c>
       <c r="J10">
-        <v>0.2139691983048911</v>
+        <v>0.2621591556960581</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.987804</v>
+        <v>3.982169333333333</v>
       </c>
       <c r="N10">
-        <v>11.963412</v>
+        <v>11.946508</v>
       </c>
       <c r="O10">
-        <v>0.04709897157033827</v>
+        <v>0.06508357591224938</v>
       </c>
       <c r="P10">
-        <v>0.04709897157033827</v>
+        <v>0.06508357591224936</v>
       </c>
       <c r="Q10">
-        <v>20.439445536156</v>
+        <v>20.51087330486444</v>
       </c>
       <c r="R10">
-        <v>183.955009825404</v>
+        <v>184.59785974378</v>
       </c>
       <c r="S10">
-        <v>0.01007772918789013</v>
+        <v>0.0170622553108356</v>
       </c>
       <c r="T10">
-        <v>0.01007772918789014</v>
+        <v>0.0170622553108356</v>
       </c>
     </row>
   </sheetData>
